--- a/src/analysis_examples/circadb/results_jtk/cosinor_10356084_irs1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10356084_irs1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22669973114013403, 0.3456710754544546]</t>
+          <t>[0.2284198665412116, 0.343950940053377]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.920482217698805e-09</v>
+        <v>1.145912920108572e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.920482217698805e-09</v>
+        <v>1.145912920108572e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.698158191129618</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.36414353132127864, 0.43579545927854524]</t>
+          <t>[0.36412864029973907, 0.4358103503000848]</t>
         </is>
       </c>
       <c r="U2" t="n">
